--- a/DS/001_設計書/002_詳細設計書/DS構造体詳細設計書.xlsx
+++ b/DS/001_設計書/002_詳細設計書/DS構造体詳細設計書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0ta52\Documents\DeliverySystem\DS\001_設計書\002_詳細設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FD2A9F7-F289-41D5-A93D-596ED6386CE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60CA94B0-A15D-4DF1-AB91-3A7DD701DCA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -199,10 +199,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>userId</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>人員ID</t>
     <rPh sb="0" eb="2">
       <t>ジンイン</t>
@@ -310,6 +306,10 @@
     <rPh sb="18" eb="21">
       <t>ミハイタツ</t>
     </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>personnelId</t>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -938,7 +938,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IW50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3685,7 +3685,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46F2EE58-101E-46FD-B927-BAD0F9400222}">
   <dimension ref="A2:BC27"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -3750,7 +3750,7 @@
     </row>
     <row r="3" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A3" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" s="22"/>
       <c r="C3" s="22"/>
@@ -4349,7 +4349,7 @@
       <c r="F14" s="22"/>
       <c r="G14" s="22"/>
       <c r="H14" s="22" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="I14" s="22"/>
       <c r="J14" s="22"/>
@@ -4364,7 +4364,7 @@
       <c r="S14" s="22"/>
       <c r="T14" s="22"/>
       <c r="U14" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V14" s="22"/>
       <c r="W14" s="22"/>
@@ -4415,7 +4415,7 @@
       <c r="F15" s="22"/>
       <c r="G15" s="22"/>
       <c r="H15" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I15" s="22"/>
       <c r="J15" s="22"/>
@@ -4430,7 +4430,7 @@
       <c r="S15" s="22"/>
       <c r="T15" s="22"/>
       <c r="U15" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="V15" s="22"/>
       <c r="W15" s="22"/>
@@ -4481,7 +4481,7 @@
       <c r="F16" s="22"/>
       <c r="G16" s="22"/>
       <c r="H16" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I16" s="22"/>
       <c r="J16" s="22"/>
@@ -4496,7 +4496,7 @@
       <c r="S16" s="22"/>
       <c r="T16" s="22"/>
       <c r="U16" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V16" s="22"/>
       <c r="W16" s="22"/>
@@ -4547,7 +4547,7 @@
       <c r="F17" s="22"/>
       <c r="G17" s="22"/>
       <c r="H17" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I17" s="22"/>
       <c r="J17" s="22"/>
@@ -4562,7 +4562,7 @@
       <c r="S17" s="22"/>
       <c r="T17" s="22"/>
       <c r="U17" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V17" s="22"/>
       <c r="W17" s="22"/>
@@ -4613,7 +4613,7 @@
       <c r="F18" s="22"/>
       <c r="G18" s="22"/>
       <c r="H18" s="22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I18" s="22"/>
       <c r="J18" s="22"/>
@@ -4628,7 +4628,7 @@
       <c r="S18" s="22"/>
       <c r="T18" s="22"/>
       <c r="U18" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V18" s="22"/>
       <c r="W18" s="22"/>
@@ -4679,7 +4679,7 @@
       <c r="F19" s="22"/>
       <c r="G19" s="22"/>
       <c r="H19" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I19" s="22"/>
       <c r="J19" s="22"/>
@@ -4694,7 +4694,7 @@
       <c r="S19" s="22"/>
       <c r="T19" s="22"/>
       <c r="U19" s="22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V19" s="22"/>
       <c r="W19" s="22"/>
@@ -4745,7 +4745,7 @@
       <c r="F20" s="22"/>
       <c r="G20" s="22"/>
       <c r="H20" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I20" s="22"/>
       <c r="J20" s="22"/>
@@ -4804,14 +4804,14 @@
       </c>
       <c r="B21" s="22"/>
       <c r="C21" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D21" s="22"/>
       <c r="E21" s="22"/>
       <c r="F21" s="22"/>
       <c r="G21" s="22"/>
       <c r="H21" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I21" s="22"/>
       <c r="J21" s="22"/>
@@ -4826,7 +4826,7 @@
       <c r="S21" s="22"/>
       <c r="T21" s="22"/>
       <c r="U21" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V21" s="22"/>
       <c r="W21" s="22"/>
@@ -4841,7 +4841,7 @@
       <c r="AF21" s="22"/>
       <c r="AG21" s="22"/>
       <c r="AH21" s="22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AI21" s="22"/>
       <c r="AJ21" s="22"/>
@@ -5227,98 +5227,6 @@
     </row>
   </sheetData>
   <mergeCells count="112">
-    <mergeCell ref="A2:BC2"/>
-    <mergeCell ref="A3:BC3"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:T6"/>
-    <mergeCell ref="U6:AG6"/>
-    <mergeCell ref="AH6:BC6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:T7"/>
-    <mergeCell ref="U7:AG7"/>
-    <mergeCell ref="AH7:BC7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:T8"/>
-    <mergeCell ref="U8:AG8"/>
-    <mergeCell ref="AH8:BC8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:T9"/>
-    <mergeCell ref="U9:AG9"/>
-    <mergeCell ref="AH9:BC9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H10:T10"/>
-    <mergeCell ref="U10:AG10"/>
-    <mergeCell ref="AH10:BC10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="H11:T11"/>
-    <mergeCell ref="U11:AG11"/>
-    <mergeCell ref="AH11:BC11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:T12"/>
-    <mergeCell ref="U12:AG12"/>
-    <mergeCell ref="AH12:BC12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:T13"/>
-    <mergeCell ref="U13:AG13"/>
-    <mergeCell ref="AH13:BC13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:T14"/>
-    <mergeCell ref="U14:AG14"/>
-    <mergeCell ref="AH14:BC14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="H15:T15"/>
-    <mergeCell ref="U15:AG15"/>
-    <mergeCell ref="AH15:BC15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H16:T16"/>
-    <mergeCell ref="U16:AG16"/>
-    <mergeCell ref="AH16:BC16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="H17:T17"/>
-    <mergeCell ref="U17:AG17"/>
-    <mergeCell ref="AH17:BC17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:T18"/>
-    <mergeCell ref="U18:AG18"/>
-    <mergeCell ref="AH18:BC18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:T19"/>
-    <mergeCell ref="U19:AG19"/>
-    <mergeCell ref="AH19:BC19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:T20"/>
-    <mergeCell ref="U20:AG20"/>
-    <mergeCell ref="AH20:BC20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:T21"/>
-    <mergeCell ref="U21:AG21"/>
-    <mergeCell ref="AH21:BC21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:T22"/>
-    <mergeCell ref="U22:AG22"/>
-    <mergeCell ref="AH22:BC22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:T23"/>
-    <mergeCell ref="U23:AG23"/>
-    <mergeCell ref="AH23:BC23"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="C24:G24"/>
     <mergeCell ref="H24:T24"/>
@@ -5339,6 +5247,98 @@
     <mergeCell ref="H26:T26"/>
     <mergeCell ref="U26:AG26"/>
     <mergeCell ref="AH26:BC26"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:T22"/>
+    <mergeCell ref="U22:AG22"/>
+    <mergeCell ref="AH22:BC22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:T23"/>
+    <mergeCell ref="U23:AG23"/>
+    <mergeCell ref="AH23:BC23"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:T20"/>
+    <mergeCell ref="U20:AG20"/>
+    <mergeCell ref="AH20:BC20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:T21"/>
+    <mergeCell ref="U21:AG21"/>
+    <mergeCell ref="AH21:BC21"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:T18"/>
+    <mergeCell ref="U18:AG18"/>
+    <mergeCell ref="AH18:BC18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:T19"/>
+    <mergeCell ref="U19:AG19"/>
+    <mergeCell ref="AH19:BC19"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:T16"/>
+    <mergeCell ref="U16:AG16"/>
+    <mergeCell ref="AH16:BC16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:T17"/>
+    <mergeCell ref="U17:AG17"/>
+    <mergeCell ref="AH17:BC17"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:T14"/>
+    <mergeCell ref="U14:AG14"/>
+    <mergeCell ref="AH14:BC14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:T15"/>
+    <mergeCell ref="U15:AG15"/>
+    <mergeCell ref="AH15:BC15"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:T12"/>
+    <mergeCell ref="U12:AG12"/>
+    <mergeCell ref="AH12:BC12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:T13"/>
+    <mergeCell ref="U13:AG13"/>
+    <mergeCell ref="AH13:BC13"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:T10"/>
+    <mergeCell ref="U10:AG10"/>
+    <mergeCell ref="AH10:BC10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:T11"/>
+    <mergeCell ref="U11:AG11"/>
+    <mergeCell ref="AH11:BC11"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:T8"/>
+    <mergeCell ref="U8:AG8"/>
+    <mergeCell ref="AH8:BC8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:T9"/>
+    <mergeCell ref="U9:AG9"/>
+    <mergeCell ref="AH9:BC9"/>
+    <mergeCell ref="A2:BC2"/>
+    <mergeCell ref="A3:BC3"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:T6"/>
+    <mergeCell ref="U6:AG6"/>
+    <mergeCell ref="AH6:BC6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:T7"/>
+    <mergeCell ref="U7:AG7"/>
+    <mergeCell ref="AH7:BC7"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -5876,6 +5876,48 @@
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:T20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:T21"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:T18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:T19"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:T17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:T16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:T15"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:T14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:T13"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:T12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:T11"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:T10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:T9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:T8"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="H7:T7"/>
@@ -5884,48 +5926,6 @@
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="H6:T6"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:T9"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:T8"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="H11:T11"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H10:T10"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:T13"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:T12"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="H15:T15"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:T14"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="H17:T17"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H16:T16"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:T18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:T19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:T20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:T21"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/DS/001_設計書/002_詳細設計書/DS構造体詳細設計書.xlsx
+++ b/DS/001_設計書/002_詳細設計書/DS構造体詳細設計書.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0ta52\Documents\DeliverySystem\DS\001_設計書\002_詳細設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60CA94B0-A15D-4DF1-AB91-3A7DD701DCA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B1A187-6C05-4012-BDE9-A44445226E61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
     <sheet name="人員データ（PERSONNEL_DATA）" sheetId="11" r:id="rId2"/>
-    <sheet name="構造体" sheetId="10" r:id="rId3"/>
-    <sheet name="×" sheetId="6" r:id="rId4"/>
+    <sheet name="店舗データ（STORE_DATA）" sheetId="12" r:id="rId3"/>
+    <sheet name="構造体" sheetId="10" r:id="rId4"/>
+    <sheet name="×" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="50">
   <si>
     <t>作成日</t>
   </si>
@@ -310,6 +311,14 @@
   </si>
   <si>
     <t>personnelId</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>STORE_DATA</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>storeId</t>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -3148,7 +3157,7 @@
       <c r="AJ41" s="16"/>
       <c r="AK41" s="16"/>
       <c r="AL41" s="20">
-        <v>43924</v>
+        <v>43956</v>
       </c>
       <c r="AM41" s="20"/>
       <c r="AN41" s="20"/>
@@ -3685,7 +3694,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46F2EE58-101E-46FD-B927-BAD0F9400222}">
   <dimension ref="A2:BC27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -5347,6 +5356,633 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E47E93F-13DF-422C-AD61-2DE9640B088B}">
+  <dimension ref="A2:BC21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A2" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="22"/>
+      <c r="X2" s="22"/>
+      <c r="Y2" s="22"/>
+      <c r="Z2" s="22"/>
+      <c r="AA2" s="22"/>
+      <c r="AB2" s="22"/>
+      <c r="AC2" s="22"/>
+      <c r="AD2" s="22"/>
+      <c r="AE2" s="22"/>
+      <c r="AF2" s="22"/>
+      <c r="AG2" s="22"/>
+      <c r="AH2" s="22"/>
+      <c r="AI2" s="22"/>
+      <c r="AJ2" s="22"/>
+      <c r="AK2" s="22"/>
+      <c r="AL2" s="22"/>
+      <c r="AM2" s="22"/>
+      <c r="AN2" s="22"/>
+      <c r="AO2" s="22"/>
+      <c r="AP2" s="22"/>
+      <c r="AQ2" s="22"/>
+      <c r="AR2" s="22"/>
+      <c r="AS2" s="22"/>
+      <c r="AT2" s="22"/>
+      <c r="AU2" s="22"/>
+      <c r="AV2" s="22"/>
+      <c r="AW2" s="22"/>
+      <c r="AX2" s="22"/>
+      <c r="AY2" s="22"/>
+      <c r="AZ2" s="22"/>
+      <c r="BA2" s="22"/>
+      <c r="BB2" s="22"/>
+      <c r="BC2" s="22"/>
+    </row>
+    <row r="3" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A3" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="22"/>
+      <c r="X3" s="22"/>
+      <c r="Y3" s="22"/>
+      <c r="Z3" s="22"/>
+      <c r="AA3" s="22"/>
+      <c r="AB3" s="22"/>
+      <c r="AC3" s="22"/>
+      <c r="AD3" s="22"/>
+      <c r="AE3" s="22"/>
+      <c r="AF3" s="22"/>
+      <c r="AG3" s="22"/>
+      <c r="AH3" s="22"/>
+      <c r="AI3" s="22"/>
+      <c r="AJ3" s="22"/>
+      <c r="AK3" s="22"/>
+      <c r="AL3" s="22"/>
+      <c r="AM3" s="22"/>
+      <c r="AN3" s="22"/>
+      <c r="AO3" s="22"/>
+      <c r="AP3" s="22"/>
+      <c r="AQ3" s="22"/>
+      <c r="AR3" s="22"/>
+      <c r="AS3" s="22"/>
+      <c r="AT3" s="22"/>
+      <c r="AU3" s="22"/>
+      <c r="AV3" s="22"/>
+      <c r="AW3" s="22"/>
+      <c r="AX3" s="22"/>
+      <c r="AY3" s="22"/>
+      <c r="AZ3" s="22"/>
+      <c r="BA3" s="22"/>
+      <c r="BB3" s="22"/>
+      <c r="BC3" s="22"/>
+    </row>
+    <row r="6" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A6" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="22"/>
+    </row>
+    <row r="7" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A7" s="22">
+        <v>1</v>
+      </c>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="22"/>
+    </row>
+    <row r="8" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A8" s="22">
+        <f>A7 + 1</f>
+        <v>2</v>
+      </c>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="22"/>
+    </row>
+    <row r="9" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A9" s="22">
+        <f t="shared" ref="A9:A21" si="0">A8 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="22"/>
+    </row>
+    <row r="10" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A10" s="22">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="22"/>
+    </row>
+    <row r="11" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A11" s="22">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="22"/>
+    </row>
+    <row r="12" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A12" s="22">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="22"/>
+    </row>
+    <row r="13" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A13" s="22">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="22"/>
+    </row>
+    <row r="14" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A14" s="22">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="22"/>
+    </row>
+    <row r="15" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A15" s="22">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="22"/>
+      <c r="T15" s="22"/>
+    </row>
+    <row r="16" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A16" s="22">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="22"/>
+      <c r="S16" s="22"/>
+      <c r="T16" s="22"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A17" s="22">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="22"/>
+      <c r="S17" s="22"/>
+      <c r="T17" s="22"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A18" s="22">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="22"/>
+      <c r="S18" s="22"/>
+      <c r="T18" s="22"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A19" s="22">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="22"/>
+      <c r="Q19" s="22"/>
+      <c r="R19" s="22"/>
+      <c r="S19" s="22"/>
+      <c r="T19" s="22"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A20" s="22">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="22"/>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="22"/>
+      <c r="S20" s="22"/>
+      <c r="T20" s="22"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A21" s="22">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="22"/>
+      <c r="Q21" s="22"/>
+      <c r="R21" s="22"/>
+      <c r="S21" s="22"/>
+      <c r="T21" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="50">
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:T20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:T21"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:T18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:T19"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:T16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:T17"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:T14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:T15"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:T12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:T13"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:T10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:T11"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:T8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:T9"/>
+    <mergeCell ref="A2:BC2"/>
+    <mergeCell ref="A3:BC3"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:T6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:T7"/>
+  </mergeCells>
+  <phoneticPr fontId="6"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C00BFEF-4139-4448-B96C-465053393676}">
   <dimension ref="A2:BC21"/>
   <sheetViews>
@@ -5933,7 +6569,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/DS/001_設計書/002_詳細設計書/DS構造体詳細設計書.xlsx
+++ b/DS/001_設計書/002_詳細設計書/DS構造体詳細設計書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0ta52\Documents\DeliverySystem\DS\001_設計書\002_詳細設計書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0ta52\OneDrive\ドキュメント\DeliverySystem\DS\001_設計書\002_詳細設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B1A187-6C05-4012-BDE9-A44445226E61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE4CDAD-E0E2-4D39-BE32-46E5B225DA03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,6 @@
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -35,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="60">
   <si>
     <t>作成日</t>
   </si>
@@ -319,6 +313,76 @@
   </si>
   <si>
     <t>storeId</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>名前</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>電話番号</t>
+    <rPh sb="0" eb="2">
+      <t>デンワ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>メール</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>住所１</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>住所２</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>地域１</t>
+    <rPh sb="0" eb="2">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>地域２</t>
+    <rPh sb="0" eb="2">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>人員ID</t>
+    <rPh sb="0" eb="2">
+      <t>ジンイン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>店舗ID</t>
+    <rPh sb="0" eb="2">
+      <t>テンポ</t>
+    </rPh>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -5236,6 +5300,98 @@
     </row>
   </sheetData>
   <mergeCells count="112">
+    <mergeCell ref="A2:BC2"/>
+    <mergeCell ref="A3:BC3"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:T6"/>
+    <mergeCell ref="U6:AG6"/>
+    <mergeCell ref="AH6:BC6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:T7"/>
+    <mergeCell ref="U7:AG7"/>
+    <mergeCell ref="AH7:BC7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:T8"/>
+    <mergeCell ref="U8:AG8"/>
+    <mergeCell ref="AH8:BC8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:T9"/>
+    <mergeCell ref="U9:AG9"/>
+    <mergeCell ref="AH9:BC9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:T10"/>
+    <mergeCell ref="U10:AG10"/>
+    <mergeCell ref="AH10:BC10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:T11"/>
+    <mergeCell ref="U11:AG11"/>
+    <mergeCell ref="AH11:BC11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:T12"/>
+    <mergeCell ref="U12:AG12"/>
+    <mergeCell ref="AH12:BC12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:T13"/>
+    <mergeCell ref="U13:AG13"/>
+    <mergeCell ref="AH13:BC13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:T14"/>
+    <mergeCell ref="U14:AG14"/>
+    <mergeCell ref="AH14:BC14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:T15"/>
+    <mergeCell ref="U15:AG15"/>
+    <mergeCell ref="AH15:BC15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:T16"/>
+    <mergeCell ref="U16:AG16"/>
+    <mergeCell ref="AH16:BC16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:T17"/>
+    <mergeCell ref="U17:AG17"/>
+    <mergeCell ref="AH17:BC17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:T18"/>
+    <mergeCell ref="U18:AG18"/>
+    <mergeCell ref="AH18:BC18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:T19"/>
+    <mergeCell ref="U19:AG19"/>
+    <mergeCell ref="AH19:BC19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:T20"/>
+    <mergeCell ref="U20:AG20"/>
+    <mergeCell ref="AH20:BC20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:T21"/>
+    <mergeCell ref="U21:AG21"/>
+    <mergeCell ref="AH21:BC21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:T22"/>
+    <mergeCell ref="U22:AG22"/>
+    <mergeCell ref="AH22:BC22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:T23"/>
+    <mergeCell ref="U23:AG23"/>
+    <mergeCell ref="AH23:BC23"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="C24:G24"/>
     <mergeCell ref="H24:T24"/>
@@ -5256,98 +5412,6 @@
     <mergeCell ref="H26:T26"/>
     <mergeCell ref="U26:AG26"/>
     <mergeCell ref="AH26:BC26"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:T22"/>
-    <mergeCell ref="U22:AG22"/>
-    <mergeCell ref="AH22:BC22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:T23"/>
-    <mergeCell ref="U23:AG23"/>
-    <mergeCell ref="AH23:BC23"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:T20"/>
-    <mergeCell ref="U20:AG20"/>
-    <mergeCell ref="AH20:BC20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:T21"/>
-    <mergeCell ref="U21:AG21"/>
-    <mergeCell ref="AH21:BC21"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:T18"/>
-    <mergeCell ref="U18:AG18"/>
-    <mergeCell ref="AH18:BC18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:T19"/>
-    <mergeCell ref="U19:AG19"/>
-    <mergeCell ref="AH19:BC19"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H16:T16"/>
-    <mergeCell ref="U16:AG16"/>
-    <mergeCell ref="AH16:BC16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="H17:T17"/>
-    <mergeCell ref="U17:AG17"/>
-    <mergeCell ref="AH17:BC17"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:T14"/>
-    <mergeCell ref="U14:AG14"/>
-    <mergeCell ref="AH14:BC14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="H15:T15"/>
-    <mergeCell ref="U15:AG15"/>
-    <mergeCell ref="AH15:BC15"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:T12"/>
-    <mergeCell ref="U12:AG12"/>
-    <mergeCell ref="AH12:BC12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:T13"/>
-    <mergeCell ref="U13:AG13"/>
-    <mergeCell ref="AH13:BC13"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H10:T10"/>
-    <mergeCell ref="U10:AG10"/>
-    <mergeCell ref="AH10:BC10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="H11:T11"/>
-    <mergeCell ref="U11:AG11"/>
-    <mergeCell ref="AH11:BC11"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:T8"/>
-    <mergeCell ref="U8:AG8"/>
-    <mergeCell ref="AH8:BC8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:T9"/>
-    <mergeCell ref="U9:AG9"/>
-    <mergeCell ref="AH9:BC9"/>
-    <mergeCell ref="A2:BC2"/>
-    <mergeCell ref="A3:BC3"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:T6"/>
-    <mergeCell ref="U6:AG6"/>
-    <mergeCell ref="AH6:BC6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:T7"/>
-    <mergeCell ref="U7:AG7"/>
-    <mergeCell ref="AH7:BC7"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -5508,6 +5572,45 @@
       <c r="R6" s="22"/>
       <c r="S6" s="22"/>
       <c r="T6" s="22"/>
+      <c r="U6" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="V6" s="22"/>
+      <c r="W6" s="22"/>
+      <c r="X6" s="22"/>
+      <c r="Y6" s="22"/>
+      <c r="Z6" s="22"/>
+      <c r="AA6" s="22"/>
+      <c r="AB6" s="22"/>
+      <c r="AC6" s="22"/>
+      <c r="AD6" s="22"/>
+      <c r="AE6" s="22"/>
+      <c r="AF6" s="22"/>
+      <c r="AG6" s="22"/>
+      <c r="AH6" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI6" s="22"/>
+      <c r="AJ6" s="22"/>
+      <c r="AK6" s="22"/>
+      <c r="AL6" s="22"/>
+      <c r="AM6" s="22"/>
+      <c r="AN6" s="22"/>
+      <c r="AO6" s="22"/>
+      <c r="AP6" s="22"/>
+      <c r="AQ6" s="22"/>
+      <c r="AR6" s="22"/>
+      <c r="AS6" s="22"/>
+      <c r="AT6" s="22"/>
+      <c r="AU6" s="22"/>
+      <c r="AV6" s="22"/>
+      <c r="AW6" s="22"/>
+      <c r="AX6" s="22"/>
+      <c r="AY6" s="22"/>
+      <c r="AZ6" s="22"/>
+      <c r="BA6" s="22"/>
+      <c r="BB6" s="22"/>
+      <c r="BC6" s="22"/>
     </row>
     <row r="7" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A7" s="22">
@@ -5536,6 +5639,43 @@
       <c r="R7" s="22"/>
       <c r="S7" s="22"/>
       <c r="T7" s="22"/>
+      <c r="U7" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="V7" s="22"/>
+      <c r="W7" s="22"/>
+      <c r="X7" s="22"/>
+      <c r="Y7" s="22"/>
+      <c r="Z7" s="22"/>
+      <c r="AA7" s="22"/>
+      <c r="AB7" s="22"/>
+      <c r="AC7" s="22"/>
+      <c r="AD7" s="22"/>
+      <c r="AE7" s="22"/>
+      <c r="AF7" s="22"/>
+      <c r="AG7" s="22"/>
+      <c r="AH7" s="22"/>
+      <c r="AI7" s="22"/>
+      <c r="AJ7" s="22"/>
+      <c r="AK7" s="22"/>
+      <c r="AL7" s="22"/>
+      <c r="AM7" s="22"/>
+      <c r="AN7" s="22"/>
+      <c r="AO7" s="22"/>
+      <c r="AP7" s="22"/>
+      <c r="AQ7" s="22"/>
+      <c r="AR7" s="22"/>
+      <c r="AS7" s="22"/>
+      <c r="AT7" s="22"/>
+      <c r="AU7" s="22"/>
+      <c r="AV7" s="22"/>
+      <c r="AW7" s="22"/>
+      <c r="AX7" s="22"/>
+      <c r="AY7" s="22"/>
+      <c r="AZ7" s="22"/>
+      <c r="BA7" s="22"/>
+      <c r="BB7" s="22"/>
+      <c r="BC7" s="22"/>
     </row>
     <row r="8" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A8" s="22">
@@ -5565,6 +5705,43 @@
       <c r="R8" s="22"/>
       <c r="S8" s="22"/>
       <c r="T8" s="22"/>
+      <c r="U8" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="V8" s="22"/>
+      <c r="W8" s="22"/>
+      <c r="X8" s="22"/>
+      <c r="Y8" s="22"/>
+      <c r="Z8" s="22"/>
+      <c r="AA8" s="22"/>
+      <c r="AB8" s="22"/>
+      <c r="AC8" s="22"/>
+      <c r="AD8" s="22"/>
+      <c r="AE8" s="22"/>
+      <c r="AF8" s="22"/>
+      <c r="AG8" s="22"/>
+      <c r="AH8" s="22"/>
+      <c r="AI8" s="22"/>
+      <c r="AJ8" s="22"/>
+      <c r="AK8" s="22"/>
+      <c r="AL8" s="22"/>
+      <c r="AM8" s="22"/>
+      <c r="AN8" s="22"/>
+      <c r="AO8" s="22"/>
+      <c r="AP8" s="22"/>
+      <c r="AQ8" s="22"/>
+      <c r="AR8" s="22"/>
+      <c r="AS8" s="22"/>
+      <c r="AT8" s="22"/>
+      <c r="AU8" s="22"/>
+      <c r="AV8" s="22"/>
+      <c r="AW8" s="22"/>
+      <c r="AX8" s="22"/>
+      <c r="AY8" s="22"/>
+      <c r="AZ8" s="22"/>
+      <c r="BA8" s="22"/>
+      <c r="BB8" s="22"/>
+      <c r="BC8" s="22"/>
     </row>
     <row r="9" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A9" s="22">
@@ -5594,6 +5771,43 @@
       <c r="R9" s="22"/>
       <c r="S9" s="22"/>
       <c r="T9" s="22"/>
+      <c r="U9" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="V9" s="22"/>
+      <c r="W9" s="22"/>
+      <c r="X9" s="22"/>
+      <c r="Y9" s="22"/>
+      <c r="Z9" s="22"/>
+      <c r="AA9" s="22"/>
+      <c r="AB9" s="22"/>
+      <c r="AC9" s="22"/>
+      <c r="AD9" s="22"/>
+      <c r="AE9" s="22"/>
+      <c r="AF9" s="22"/>
+      <c r="AG9" s="22"/>
+      <c r="AH9" s="22"/>
+      <c r="AI9" s="22"/>
+      <c r="AJ9" s="22"/>
+      <c r="AK9" s="22"/>
+      <c r="AL9" s="22"/>
+      <c r="AM9" s="22"/>
+      <c r="AN9" s="22"/>
+      <c r="AO9" s="22"/>
+      <c r="AP9" s="22"/>
+      <c r="AQ9" s="22"/>
+      <c r="AR9" s="22"/>
+      <c r="AS9" s="22"/>
+      <c r="AT9" s="22"/>
+      <c r="AU9" s="22"/>
+      <c r="AV9" s="22"/>
+      <c r="AW9" s="22"/>
+      <c r="AX9" s="22"/>
+      <c r="AY9" s="22"/>
+      <c r="AZ9" s="22"/>
+      <c r="BA9" s="22"/>
+      <c r="BB9" s="22"/>
+      <c r="BC9" s="22"/>
     </row>
     <row r="10" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A10" s="22">
@@ -5623,6 +5837,43 @@
       <c r="R10" s="22"/>
       <c r="S10" s="22"/>
       <c r="T10" s="22"/>
+      <c r="U10" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="V10" s="22"/>
+      <c r="W10" s="22"/>
+      <c r="X10" s="22"/>
+      <c r="Y10" s="22"/>
+      <c r="Z10" s="22"/>
+      <c r="AA10" s="22"/>
+      <c r="AB10" s="22"/>
+      <c r="AC10" s="22"/>
+      <c r="AD10" s="22"/>
+      <c r="AE10" s="22"/>
+      <c r="AF10" s="22"/>
+      <c r="AG10" s="22"/>
+      <c r="AH10" s="22"/>
+      <c r="AI10" s="22"/>
+      <c r="AJ10" s="22"/>
+      <c r="AK10" s="22"/>
+      <c r="AL10" s="22"/>
+      <c r="AM10" s="22"/>
+      <c r="AN10" s="22"/>
+      <c r="AO10" s="22"/>
+      <c r="AP10" s="22"/>
+      <c r="AQ10" s="22"/>
+      <c r="AR10" s="22"/>
+      <c r="AS10" s="22"/>
+      <c r="AT10" s="22"/>
+      <c r="AU10" s="22"/>
+      <c r="AV10" s="22"/>
+      <c r="AW10" s="22"/>
+      <c r="AX10" s="22"/>
+      <c r="AY10" s="22"/>
+      <c r="AZ10" s="22"/>
+      <c r="BA10" s="22"/>
+      <c r="BB10" s="22"/>
+      <c r="BC10" s="22"/>
     </row>
     <row r="11" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A11" s="22">
@@ -5652,6 +5903,43 @@
       <c r="R11" s="22"/>
       <c r="S11" s="22"/>
       <c r="T11" s="22"/>
+      <c r="U11" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="V11" s="22"/>
+      <c r="W11" s="22"/>
+      <c r="X11" s="22"/>
+      <c r="Y11" s="22"/>
+      <c r="Z11" s="22"/>
+      <c r="AA11" s="22"/>
+      <c r="AB11" s="22"/>
+      <c r="AC11" s="22"/>
+      <c r="AD11" s="22"/>
+      <c r="AE11" s="22"/>
+      <c r="AF11" s="22"/>
+      <c r="AG11" s="22"/>
+      <c r="AH11" s="22"/>
+      <c r="AI11" s="22"/>
+      <c r="AJ11" s="22"/>
+      <c r="AK11" s="22"/>
+      <c r="AL11" s="22"/>
+      <c r="AM11" s="22"/>
+      <c r="AN11" s="22"/>
+      <c r="AO11" s="22"/>
+      <c r="AP11" s="22"/>
+      <c r="AQ11" s="22"/>
+      <c r="AR11" s="22"/>
+      <c r="AS11" s="22"/>
+      <c r="AT11" s="22"/>
+      <c r="AU11" s="22"/>
+      <c r="AV11" s="22"/>
+      <c r="AW11" s="22"/>
+      <c r="AX11" s="22"/>
+      <c r="AY11" s="22"/>
+      <c r="AZ11" s="22"/>
+      <c r="BA11" s="22"/>
+      <c r="BB11" s="22"/>
+      <c r="BC11" s="22"/>
     </row>
     <row r="12" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A12" s="22">
@@ -5681,6 +5969,43 @@
       <c r="R12" s="22"/>
       <c r="S12" s="22"/>
       <c r="T12" s="22"/>
+      <c r="U12" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="V12" s="22"/>
+      <c r="W12" s="22"/>
+      <c r="X12" s="22"/>
+      <c r="Y12" s="22"/>
+      <c r="Z12" s="22"/>
+      <c r="AA12" s="22"/>
+      <c r="AB12" s="22"/>
+      <c r="AC12" s="22"/>
+      <c r="AD12" s="22"/>
+      <c r="AE12" s="22"/>
+      <c r="AF12" s="22"/>
+      <c r="AG12" s="22"/>
+      <c r="AH12" s="22"/>
+      <c r="AI12" s="22"/>
+      <c r="AJ12" s="22"/>
+      <c r="AK12" s="22"/>
+      <c r="AL12" s="22"/>
+      <c r="AM12" s="22"/>
+      <c r="AN12" s="22"/>
+      <c r="AO12" s="22"/>
+      <c r="AP12" s="22"/>
+      <c r="AQ12" s="22"/>
+      <c r="AR12" s="22"/>
+      <c r="AS12" s="22"/>
+      <c r="AT12" s="22"/>
+      <c r="AU12" s="22"/>
+      <c r="AV12" s="22"/>
+      <c r="AW12" s="22"/>
+      <c r="AX12" s="22"/>
+      <c r="AY12" s="22"/>
+      <c r="AZ12" s="22"/>
+      <c r="BA12" s="22"/>
+      <c r="BB12" s="22"/>
+      <c r="BC12" s="22"/>
     </row>
     <row r="13" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A13" s="22">
@@ -5710,6 +6035,43 @@
       <c r="R13" s="22"/>
       <c r="S13" s="22"/>
       <c r="T13" s="22"/>
+      <c r="U13" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="V13" s="22"/>
+      <c r="W13" s="22"/>
+      <c r="X13" s="22"/>
+      <c r="Y13" s="22"/>
+      <c r="Z13" s="22"/>
+      <c r="AA13" s="22"/>
+      <c r="AB13" s="22"/>
+      <c r="AC13" s="22"/>
+      <c r="AD13" s="22"/>
+      <c r="AE13" s="22"/>
+      <c r="AF13" s="22"/>
+      <c r="AG13" s="22"/>
+      <c r="AH13" s="22"/>
+      <c r="AI13" s="22"/>
+      <c r="AJ13" s="22"/>
+      <c r="AK13" s="22"/>
+      <c r="AL13" s="22"/>
+      <c r="AM13" s="22"/>
+      <c r="AN13" s="22"/>
+      <c r="AO13" s="22"/>
+      <c r="AP13" s="22"/>
+      <c r="AQ13" s="22"/>
+      <c r="AR13" s="22"/>
+      <c r="AS13" s="22"/>
+      <c r="AT13" s="22"/>
+      <c r="AU13" s="22"/>
+      <c r="AV13" s="22"/>
+      <c r="AW13" s="22"/>
+      <c r="AX13" s="22"/>
+      <c r="AY13" s="22"/>
+      <c r="AZ13" s="22"/>
+      <c r="BA13" s="22"/>
+      <c r="BB13" s="22"/>
+      <c r="BC13" s="22"/>
     </row>
     <row r="14" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A14" s="22">
@@ -5739,6 +6101,43 @@
       <c r="R14" s="22"/>
       <c r="S14" s="22"/>
       <c r="T14" s="22"/>
+      <c r="U14" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="V14" s="22"/>
+      <c r="W14" s="22"/>
+      <c r="X14" s="22"/>
+      <c r="Y14" s="22"/>
+      <c r="Z14" s="22"/>
+      <c r="AA14" s="22"/>
+      <c r="AB14" s="22"/>
+      <c r="AC14" s="22"/>
+      <c r="AD14" s="22"/>
+      <c r="AE14" s="22"/>
+      <c r="AF14" s="22"/>
+      <c r="AG14" s="22"/>
+      <c r="AH14" s="22"/>
+      <c r="AI14" s="22"/>
+      <c r="AJ14" s="22"/>
+      <c r="AK14" s="22"/>
+      <c r="AL14" s="22"/>
+      <c r="AM14" s="22"/>
+      <c r="AN14" s="22"/>
+      <c r="AO14" s="22"/>
+      <c r="AP14" s="22"/>
+      <c r="AQ14" s="22"/>
+      <c r="AR14" s="22"/>
+      <c r="AS14" s="22"/>
+      <c r="AT14" s="22"/>
+      <c r="AU14" s="22"/>
+      <c r="AV14" s="22"/>
+      <c r="AW14" s="22"/>
+      <c r="AX14" s="22"/>
+      <c r="AY14" s="22"/>
+      <c r="AZ14" s="22"/>
+      <c r="BA14" s="22"/>
+      <c r="BB14" s="22"/>
+      <c r="BC14" s="22"/>
     </row>
     <row r="15" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A15" s="22">
@@ -5768,6 +6167,43 @@
       <c r="R15" s="22"/>
       <c r="S15" s="22"/>
       <c r="T15" s="22"/>
+      <c r="U15" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="V15" s="22"/>
+      <c r="W15" s="22"/>
+      <c r="X15" s="22"/>
+      <c r="Y15" s="22"/>
+      <c r="Z15" s="22"/>
+      <c r="AA15" s="22"/>
+      <c r="AB15" s="22"/>
+      <c r="AC15" s="22"/>
+      <c r="AD15" s="22"/>
+      <c r="AE15" s="22"/>
+      <c r="AF15" s="22"/>
+      <c r="AG15" s="22"/>
+      <c r="AH15" s="22"/>
+      <c r="AI15" s="22"/>
+      <c r="AJ15" s="22"/>
+      <c r="AK15" s="22"/>
+      <c r="AL15" s="22"/>
+      <c r="AM15" s="22"/>
+      <c r="AN15" s="22"/>
+      <c r="AO15" s="22"/>
+      <c r="AP15" s="22"/>
+      <c r="AQ15" s="22"/>
+      <c r="AR15" s="22"/>
+      <c r="AS15" s="22"/>
+      <c r="AT15" s="22"/>
+      <c r="AU15" s="22"/>
+      <c r="AV15" s="22"/>
+      <c r="AW15" s="22"/>
+      <c r="AX15" s="22"/>
+      <c r="AY15" s="22"/>
+      <c r="AZ15" s="22"/>
+      <c r="BA15" s="22"/>
+      <c r="BB15" s="22"/>
+      <c r="BC15" s="22"/>
     </row>
     <row r="16" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A16" s="22">
@@ -5797,8 +6233,45 @@
       <c r="R16" s="22"/>
       <c r="S16" s="22"/>
       <c r="T16" s="22"/>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="V16" s="22"/>
+      <c r="W16" s="22"/>
+      <c r="X16" s="22"/>
+      <c r="Y16" s="22"/>
+      <c r="Z16" s="22"/>
+      <c r="AA16" s="22"/>
+      <c r="AB16" s="22"/>
+      <c r="AC16" s="22"/>
+      <c r="AD16" s="22"/>
+      <c r="AE16" s="22"/>
+      <c r="AF16" s="22"/>
+      <c r="AG16" s="22"/>
+      <c r="AH16" s="22"/>
+      <c r="AI16" s="22"/>
+      <c r="AJ16" s="22"/>
+      <c r="AK16" s="22"/>
+      <c r="AL16" s="22"/>
+      <c r="AM16" s="22"/>
+      <c r="AN16" s="22"/>
+      <c r="AO16" s="22"/>
+      <c r="AP16" s="22"/>
+      <c r="AQ16" s="22"/>
+      <c r="AR16" s="22"/>
+      <c r="AS16" s="22"/>
+      <c r="AT16" s="22"/>
+      <c r="AU16" s="22"/>
+      <c r="AV16" s="22"/>
+      <c r="AW16" s="22"/>
+      <c r="AX16" s="22"/>
+      <c r="AY16" s="22"/>
+      <c r="AZ16" s="22"/>
+      <c r="BA16" s="22"/>
+      <c r="BB16" s="22"/>
+      <c r="BC16" s="22"/>
+    </row>
+    <row r="17" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A17" s="22">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -5822,8 +6295,43 @@
       <c r="R17" s="22"/>
       <c r="S17" s="22"/>
       <c r="T17" s="22"/>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="22"/>
+      <c r="V17" s="22"/>
+      <c r="W17" s="22"/>
+      <c r="X17" s="22"/>
+      <c r="Y17" s="22"/>
+      <c r="Z17" s="22"/>
+      <c r="AA17" s="22"/>
+      <c r="AB17" s="22"/>
+      <c r="AC17" s="22"/>
+      <c r="AD17" s="22"/>
+      <c r="AE17" s="22"/>
+      <c r="AF17" s="22"/>
+      <c r="AG17" s="22"/>
+      <c r="AH17" s="22"/>
+      <c r="AI17" s="22"/>
+      <c r="AJ17" s="22"/>
+      <c r="AK17" s="22"/>
+      <c r="AL17" s="22"/>
+      <c r="AM17" s="22"/>
+      <c r="AN17" s="22"/>
+      <c r="AO17" s="22"/>
+      <c r="AP17" s="22"/>
+      <c r="AQ17" s="22"/>
+      <c r="AR17" s="22"/>
+      <c r="AS17" s="22"/>
+      <c r="AT17" s="22"/>
+      <c r="AU17" s="22"/>
+      <c r="AV17" s="22"/>
+      <c r="AW17" s="22"/>
+      <c r="AX17" s="22"/>
+      <c r="AY17" s="22"/>
+      <c r="AZ17" s="22"/>
+      <c r="BA17" s="22"/>
+      <c r="BB17" s="22"/>
+      <c r="BC17" s="22"/>
+    </row>
+    <row r="18" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A18" s="22">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -5847,8 +6355,43 @@
       <c r="R18" s="22"/>
       <c r="S18" s="22"/>
       <c r="T18" s="22"/>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="22"/>
+      <c r="V18" s="22"/>
+      <c r="W18" s="22"/>
+      <c r="X18" s="22"/>
+      <c r="Y18" s="22"/>
+      <c r="Z18" s="22"/>
+      <c r="AA18" s="22"/>
+      <c r="AB18" s="22"/>
+      <c r="AC18" s="22"/>
+      <c r="AD18" s="22"/>
+      <c r="AE18" s="22"/>
+      <c r="AF18" s="22"/>
+      <c r="AG18" s="22"/>
+      <c r="AH18" s="22"/>
+      <c r="AI18" s="22"/>
+      <c r="AJ18" s="22"/>
+      <c r="AK18" s="22"/>
+      <c r="AL18" s="22"/>
+      <c r="AM18" s="22"/>
+      <c r="AN18" s="22"/>
+      <c r="AO18" s="22"/>
+      <c r="AP18" s="22"/>
+      <c r="AQ18" s="22"/>
+      <c r="AR18" s="22"/>
+      <c r="AS18" s="22"/>
+      <c r="AT18" s="22"/>
+      <c r="AU18" s="22"/>
+      <c r="AV18" s="22"/>
+      <c r="AW18" s="22"/>
+      <c r="AX18" s="22"/>
+      <c r="AY18" s="22"/>
+      <c r="AZ18" s="22"/>
+      <c r="BA18" s="22"/>
+      <c r="BB18" s="22"/>
+      <c r="BC18" s="22"/>
+    </row>
+    <row r="19" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A19" s="22">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -5872,8 +6415,43 @@
       <c r="R19" s="22"/>
       <c r="S19" s="22"/>
       <c r="T19" s="22"/>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="22"/>
+      <c r="V19" s="22"/>
+      <c r="W19" s="22"/>
+      <c r="X19" s="22"/>
+      <c r="Y19" s="22"/>
+      <c r="Z19" s="22"/>
+      <c r="AA19" s="22"/>
+      <c r="AB19" s="22"/>
+      <c r="AC19" s="22"/>
+      <c r="AD19" s="22"/>
+      <c r="AE19" s="22"/>
+      <c r="AF19" s="22"/>
+      <c r="AG19" s="22"/>
+      <c r="AH19" s="22"/>
+      <c r="AI19" s="22"/>
+      <c r="AJ19" s="22"/>
+      <c r="AK19" s="22"/>
+      <c r="AL19" s="22"/>
+      <c r="AM19" s="22"/>
+      <c r="AN19" s="22"/>
+      <c r="AO19" s="22"/>
+      <c r="AP19" s="22"/>
+      <c r="AQ19" s="22"/>
+      <c r="AR19" s="22"/>
+      <c r="AS19" s="22"/>
+      <c r="AT19" s="22"/>
+      <c r="AU19" s="22"/>
+      <c r="AV19" s="22"/>
+      <c r="AW19" s="22"/>
+      <c r="AX19" s="22"/>
+      <c r="AY19" s="22"/>
+      <c r="AZ19" s="22"/>
+      <c r="BA19" s="22"/>
+      <c r="BB19" s="22"/>
+      <c r="BC19" s="22"/>
+    </row>
+    <row r="20" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A20" s="22">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -5897,8 +6475,43 @@
       <c r="R20" s="22"/>
       <c r="S20" s="22"/>
       <c r="T20" s="22"/>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="22"/>
+      <c r="V20" s="22"/>
+      <c r="W20" s="22"/>
+      <c r="X20" s="22"/>
+      <c r="Y20" s="22"/>
+      <c r="Z20" s="22"/>
+      <c r="AA20" s="22"/>
+      <c r="AB20" s="22"/>
+      <c r="AC20" s="22"/>
+      <c r="AD20" s="22"/>
+      <c r="AE20" s="22"/>
+      <c r="AF20" s="22"/>
+      <c r="AG20" s="22"/>
+      <c r="AH20" s="22"/>
+      <c r="AI20" s="22"/>
+      <c r="AJ20" s="22"/>
+      <c r="AK20" s="22"/>
+      <c r="AL20" s="22"/>
+      <c r="AM20" s="22"/>
+      <c r="AN20" s="22"/>
+      <c r="AO20" s="22"/>
+      <c r="AP20" s="22"/>
+      <c r="AQ20" s="22"/>
+      <c r="AR20" s="22"/>
+      <c r="AS20" s="22"/>
+      <c r="AT20" s="22"/>
+      <c r="AU20" s="22"/>
+      <c r="AV20" s="22"/>
+      <c r="AW20" s="22"/>
+      <c r="AX20" s="22"/>
+      <c r="AY20" s="22"/>
+      <c r="AZ20" s="22"/>
+      <c r="BA20" s="22"/>
+      <c r="BB20" s="22"/>
+      <c r="BC20" s="22"/>
+    </row>
+    <row r="21" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A21" s="22">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -5922,59 +6535,126 @@
       <c r="R21" s="22"/>
       <c r="S21" s="22"/>
       <c r="T21" s="22"/>
+      <c r="U21" s="22"/>
+      <c r="V21" s="22"/>
+      <c r="W21" s="22"/>
+      <c r="X21" s="22"/>
+      <c r="Y21" s="22"/>
+      <c r="Z21" s="22"/>
+      <c r="AA21" s="22"/>
+      <c r="AB21" s="22"/>
+      <c r="AC21" s="22"/>
+      <c r="AD21" s="22"/>
+      <c r="AE21" s="22"/>
+      <c r="AF21" s="22"/>
+      <c r="AG21" s="22"/>
+      <c r="AH21" s="22"/>
+      <c r="AI21" s="22"/>
+      <c r="AJ21" s="22"/>
+      <c r="AK21" s="22"/>
+      <c r="AL21" s="22"/>
+      <c r="AM21" s="22"/>
+      <c r="AN21" s="22"/>
+      <c r="AO21" s="22"/>
+      <c r="AP21" s="22"/>
+      <c r="AQ21" s="22"/>
+      <c r="AR21" s="22"/>
+      <c r="AS21" s="22"/>
+      <c r="AT21" s="22"/>
+      <c r="AU21" s="22"/>
+      <c r="AV21" s="22"/>
+      <c r="AW21" s="22"/>
+      <c r="AX21" s="22"/>
+      <c r="AY21" s="22"/>
+      <c r="AZ21" s="22"/>
+      <c r="BA21" s="22"/>
+      <c r="BB21" s="22"/>
+      <c r="BC21" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="50">
+  <mergeCells count="82">
+    <mergeCell ref="U20:AG20"/>
+    <mergeCell ref="AH20:BC20"/>
+    <mergeCell ref="U21:AG21"/>
+    <mergeCell ref="AH21:BC21"/>
+    <mergeCell ref="U17:AG17"/>
+    <mergeCell ref="AH17:BC17"/>
+    <mergeCell ref="U18:AG18"/>
+    <mergeCell ref="AH18:BC18"/>
+    <mergeCell ref="U19:AG19"/>
+    <mergeCell ref="AH19:BC19"/>
+    <mergeCell ref="U14:AG14"/>
+    <mergeCell ref="AH14:BC14"/>
+    <mergeCell ref="U15:AG15"/>
+    <mergeCell ref="AH15:BC15"/>
+    <mergeCell ref="U16:AG16"/>
+    <mergeCell ref="AH16:BC16"/>
+    <mergeCell ref="U11:AG11"/>
+    <mergeCell ref="AH11:BC11"/>
+    <mergeCell ref="U12:AG12"/>
+    <mergeCell ref="AH12:BC12"/>
+    <mergeCell ref="U13:AG13"/>
+    <mergeCell ref="AH13:BC13"/>
+    <mergeCell ref="U8:AG8"/>
+    <mergeCell ref="AH8:BC8"/>
+    <mergeCell ref="U9:AG9"/>
+    <mergeCell ref="AH9:BC9"/>
+    <mergeCell ref="U10:AG10"/>
+    <mergeCell ref="AH10:BC10"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:T7"/>
+    <mergeCell ref="U6:AG6"/>
+    <mergeCell ref="AH6:BC6"/>
+    <mergeCell ref="U7:AG7"/>
+    <mergeCell ref="AH7:BC7"/>
+    <mergeCell ref="A2:BC2"/>
+    <mergeCell ref="A3:BC3"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:T6"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:T8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:T9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:T10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:T11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:T12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:T13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:T14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:T15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:T16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:T17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:T18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:T19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:G20"/>
     <mergeCell ref="H20:T20"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="H21:T21"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:T18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:T19"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H16:T16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="H17:T17"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:T14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="H15:T15"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:T12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:T13"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H10:T10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="H11:T11"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:T8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:T9"/>
-    <mergeCell ref="A2:BC2"/>
-    <mergeCell ref="A3:BC3"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:T6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:T7"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -6512,48 +7192,6 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:T20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:T21"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:T18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:T19"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="H17:T17"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H16:T16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="H15:T15"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:T14"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:T13"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:T12"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="H11:T11"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H10:T10"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:T9"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:T8"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="H7:T7"/>
@@ -6562,6 +7200,48 @@
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="H6:T6"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:T9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:T8"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:T11"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:T10"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:T13"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:T12"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:T15"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:T14"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:T17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:T16"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:T18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:T19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:T20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:T21"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/DS/001_設計書/002_詳細設計書/DS構造体詳細設計書.xlsx
+++ b/DS/001_設計書/002_詳細設計書/DS構造体詳細設計書.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0ta52\OneDrive\ドキュメント\DeliverySystem\DS\001_設計書\002_詳細設計書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0ta52\Documents\DeliverySystem\DS\001_設計書\002_詳細設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE4CDAD-E0E2-4D39-BE32-46E5B225DA03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D171CD-7A17-4D07-A0DE-449BD1302E89}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
     <sheet name="人員データ（PERSONNEL_DATA）" sheetId="11" r:id="rId2"/>
     <sheet name="店舗データ（STORE_DATA）" sheetId="12" r:id="rId3"/>
-    <sheet name="構造体" sheetId="10" r:id="rId4"/>
-    <sheet name="×" sheetId="6" r:id="rId5"/>
+    <sheet name="お知らせデータ（INFO_DATA）" sheetId="13" r:id="rId4"/>
+    <sheet name="構造体" sheetId="10" r:id="rId5"/>
+    <sheet name="×" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="67">
   <si>
     <t>作成日</t>
   </si>
@@ -382,6 +383,58 @@
     <t>店舗ID</t>
     <rPh sb="0" eb="2">
       <t>テンポ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>INFO_DATA</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>importance</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>重要度</t>
+    <rPh sb="0" eb="3">
+      <t>ジュウヨウド</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>日付</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <rPh sb="0" eb="2">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>「0：低 1：中 2：高 」の順で位置づけする。</t>
+    <rPh sb="3" eb="4">
+      <t>テイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>コウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>イチ</t>
     </rPh>
     <phoneticPr fontId="6"/>
   </si>
@@ -1011,7 +1064,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IW50"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5300,98 +5353,6 @@
     </row>
   </sheetData>
   <mergeCells count="112">
-    <mergeCell ref="A2:BC2"/>
-    <mergeCell ref="A3:BC3"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:T6"/>
-    <mergeCell ref="U6:AG6"/>
-    <mergeCell ref="AH6:BC6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:T7"/>
-    <mergeCell ref="U7:AG7"/>
-    <mergeCell ref="AH7:BC7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:T8"/>
-    <mergeCell ref="U8:AG8"/>
-    <mergeCell ref="AH8:BC8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:T9"/>
-    <mergeCell ref="U9:AG9"/>
-    <mergeCell ref="AH9:BC9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H10:T10"/>
-    <mergeCell ref="U10:AG10"/>
-    <mergeCell ref="AH10:BC10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="H11:T11"/>
-    <mergeCell ref="U11:AG11"/>
-    <mergeCell ref="AH11:BC11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:T12"/>
-    <mergeCell ref="U12:AG12"/>
-    <mergeCell ref="AH12:BC12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:T13"/>
-    <mergeCell ref="U13:AG13"/>
-    <mergeCell ref="AH13:BC13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:T14"/>
-    <mergeCell ref="U14:AG14"/>
-    <mergeCell ref="AH14:BC14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="H15:T15"/>
-    <mergeCell ref="U15:AG15"/>
-    <mergeCell ref="AH15:BC15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H16:T16"/>
-    <mergeCell ref="U16:AG16"/>
-    <mergeCell ref="AH16:BC16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="H17:T17"/>
-    <mergeCell ref="U17:AG17"/>
-    <mergeCell ref="AH17:BC17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:T18"/>
-    <mergeCell ref="U18:AG18"/>
-    <mergeCell ref="AH18:BC18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:T19"/>
-    <mergeCell ref="U19:AG19"/>
-    <mergeCell ref="AH19:BC19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:T20"/>
-    <mergeCell ref="U20:AG20"/>
-    <mergeCell ref="AH20:BC20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:T21"/>
-    <mergeCell ref="U21:AG21"/>
-    <mergeCell ref="AH21:BC21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:T22"/>
-    <mergeCell ref="U22:AG22"/>
-    <mergeCell ref="AH22:BC22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:T23"/>
-    <mergeCell ref="U23:AG23"/>
-    <mergeCell ref="AH23:BC23"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="C24:G24"/>
     <mergeCell ref="H24:T24"/>
@@ -5412,6 +5373,98 @@
     <mergeCell ref="H26:T26"/>
     <mergeCell ref="U26:AG26"/>
     <mergeCell ref="AH26:BC26"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:T22"/>
+    <mergeCell ref="U22:AG22"/>
+    <mergeCell ref="AH22:BC22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:T23"/>
+    <mergeCell ref="U23:AG23"/>
+    <mergeCell ref="AH23:BC23"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:T20"/>
+    <mergeCell ref="U20:AG20"/>
+    <mergeCell ref="AH20:BC20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:T21"/>
+    <mergeCell ref="U21:AG21"/>
+    <mergeCell ref="AH21:BC21"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:T18"/>
+    <mergeCell ref="U18:AG18"/>
+    <mergeCell ref="AH18:BC18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:T19"/>
+    <mergeCell ref="U19:AG19"/>
+    <mergeCell ref="AH19:BC19"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:T16"/>
+    <mergeCell ref="U16:AG16"/>
+    <mergeCell ref="AH16:BC16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:T17"/>
+    <mergeCell ref="U17:AG17"/>
+    <mergeCell ref="AH17:BC17"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:T14"/>
+    <mergeCell ref="U14:AG14"/>
+    <mergeCell ref="AH14:BC14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:T15"/>
+    <mergeCell ref="U15:AG15"/>
+    <mergeCell ref="AH15:BC15"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:T12"/>
+    <mergeCell ref="U12:AG12"/>
+    <mergeCell ref="AH12:BC12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:T13"/>
+    <mergeCell ref="U13:AG13"/>
+    <mergeCell ref="AH13:BC13"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:T10"/>
+    <mergeCell ref="U10:AG10"/>
+    <mergeCell ref="AH10:BC10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:T11"/>
+    <mergeCell ref="U11:AG11"/>
+    <mergeCell ref="AH11:BC11"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:T8"/>
+    <mergeCell ref="U8:AG8"/>
+    <mergeCell ref="AH8:BC8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:T9"/>
+    <mergeCell ref="U9:AG9"/>
+    <mergeCell ref="AH9:BC9"/>
+    <mergeCell ref="A2:BC2"/>
+    <mergeCell ref="A3:BC3"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:T6"/>
+    <mergeCell ref="U6:AG6"/>
+    <mergeCell ref="AH6:BC6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:T7"/>
+    <mergeCell ref="U7:AG7"/>
+    <mergeCell ref="AH7:BC7"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -5423,7 +5476,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E47E93F-13DF-422C-AD61-2DE9640B088B}">
   <dimension ref="A2:BC21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -6573,6 +6626,78 @@
     </row>
   </sheetData>
   <mergeCells count="82">
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:T20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:T21"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:T18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:T19"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:T16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:T17"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:T14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:T15"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:T12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:T13"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:T10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:T11"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:T8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:T9"/>
+    <mergeCell ref="A2:BC2"/>
+    <mergeCell ref="A3:BC3"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:T6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:T7"/>
+    <mergeCell ref="U6:AG6"/>
+    <mergeCell ref="AH6:BC6"/>
+    <mergeCell ref="U7:AG7"/>
+    <mergeCell ref="AH7:BC7"/>
+    <mergeCell ref="U8:AG8"/>
+    <mergeCell ref="AH8:BC8"/>
+    <mergeCell ref="U9:AG9"/>
+    <mergeCell ref="AH9:BC9"/>
+    <mergeCell ref="U10:AG10"/>
+    <mergeCell ref="AH10:BC10"/>
+    <mergeCell ref="U11:AG11"/>
+    <mergeCell ref="AH11:BC11"/>
+    <mergeCell ref="U12:AG12"/>
+    <mergeCell ref="AH12:BC12"/>
+    <mergeCell ref="U13:AG13"/>
+    <mergeCell ref="AH13:BC13"/>
+    <mergeCell ref="U14:AG14"/>
+    <mergeCell ref="AH14:BC14"/>
+    <mergeCell ref="U15:AG15"/>
+    <mergeCell ref="AH15:BC15"/>
+    <mergeCell ref="U16:AG16"/>
+    <mergeCell ref="AH16:BC16"/>
     <mergeCell ref="U20:AG20"/>
     <mergeCell ref="AH20:BC20"/>
     <mergeCell ref="U21:AG21"/>
@@ -6583,78 +6708,6 @@
     <mergeCell ref="AH18:BC18"/>
     <mergeCell ref="U19:AG19"/>
     <mergeCell ref="AH19:BC19"/>
-    <mergeCell ref="U14:AG14"/>
-    <mergeCell ref="AH14:BC14"/>
-    <mergeCell ref="U15:AG15"/>
-    <mergeCell ref="AH15:BC15"/>
-    <mergeCell ref="U16:AG16"/>
-    <mergeCell ref="AH16:BC16"/>
-    <mergeCell ref="U11:AG11"/>
-    <mergeCell ref="AH11:BC11"/>
-    <mergeCell ref="U12:AG12"/>
-    <mergeCell ref="AH12:BC12"/>
-    <mergeCell ref="U13:AG13"/>
-    <mergeCell ref="AH13:BC13"/>
-    <mergeCell ref="U8:AG8"/>
-    <mergeCell ref="AH8:BC8"/>
-    <mergeCell ref="U9:AG9"/>
-    <mergeCell ref="AH9:BC9"/>
-    <mergeCell ref="U10:AG10"/>
-    <mergeCell ref="AH10:BC10"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:T7"/>
-    <mergeCell ref="U6:AG6"/>
-    <mergeCell ref="AH6:BC6"/>
-    <mergeCell ref="U7:AG7"/>
-    <mergeCell ref="AH7:BC7"/>
-    <mergeCell ref="A2:BC2"/>
-    <mergeCell ref="A3:BC3"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:T6"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:T8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:T9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H10:T10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="H11:T11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:T12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:T13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:T14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="H15:T15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H16:T16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="H17:T17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:T18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:T19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:T20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:T21"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -6663,7 +6716,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C00BFEF-4139-4448-B96C-465053393676}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAD303DD-5D2B-440D-9385-D91445ABD262}">
   <dimension ref="A2:BC21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
@@ -6731,7 +6784,7 @@
     </row>
     <row r="3" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A3" s="22" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="B3" s="22"/>
       <c r="C3" s="22"/>
@@ -6815,6 +6868,1209 @@
       <c r="R6" s="22"/>
       <c r="S6" s="22"/>
       <c r="T6" s="22"/>
+      <c r="U6" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="V6" s="22"/>
+      <c r="W6" s="22"/>
+      <c r="X6" s="22"/>
+      <c r="Y6" s="22"/>
+      <c r="Z6" s="22"/>
+      <c r="AA6" s="22"/>
+      <c r="AB6" s="22"/>
+      <c r="AC6" s="22"/>
+      <c r="AD6" s="22"/>
+      <c r="AE6" s="22"/>
+      <c r="AF6" s="22"/>
+      <c r="AG6" s="22"/>
+      <c r="AH6" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI6" s="22"/>
+      <c r="AJ6" s="22"/>
+      <c r="AK6" s="22"/>
+      <c r="AL6" s="22"/>
+      <c r="AM6" s="22"/>
+      <c r="AN6" s="22"/>
+      <c r="AO6" s="22"/>
+      <c r="AP6" s="22"/>
+      <c r="AQ6" s="22"/>
+      <c r="AR6" s="22"/>
+      <c r="AS6" s="22"/>
+      <c r="AT6" s="22"/>
+      <c r="AU6" s="22"/>
+      <c r="AV6" s="22"/>
+      <c r="AW6" s="22"/>
+      <c r="AX6" s="22"/>
+      <c r="AY6" s="22"/>
+      <c r="AZ6" s="22"/>
+      <c r="BA6" s="22"/>
+      <c r="BB6" s="22"/>
+      <c r="BC6" s="22"/>
+    </row>
+    <row r="7" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A7" s="22">
+        <v>1</v>
+      </c>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="22"/>
+      <c r="U7" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="V7" s="22"/>
+      <c r="W7" s="22"/>
+      <c r="X7" s="22"/>
+      <c r="Y7" s="22"/>
+      <c r="Z7" s="22"/>
+      <c r="AA7" s="22"/>
+      <c r="AB7" s="22"/>
+      <c r="AC7" s="22"/>
+      <c r="AD7" s="22"/>
+      <c r="AE7" s="22"/>
+      <c r="AF7" s="22"/>
+      <c r="AG7" s="22"/>
+      <c r="AH7" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI7" s="22"/>
+      <c r="AJ7" s="22"/>
+      <c r="AK7" s="22"/>
+      <c r="AL7" s="22"/>
+      <c r="AM7" s="22"/>
+      <c r="AN7" s="22"/>
+      <c r="AO7" s="22"/>
+      <c r="AP7" s="22"/>
+      <c r="AQ7" s="22"/>
+      <c r="AR7" s="22"/>
+      <c r="AS7" s="22"/>
+      <c r="AT7" s="22"/>
+      <c r="AU7" s="22"/>
+      <c r="AV7" s="22"/>
+      <c r="AW7" s="22"/>
+      <c r="AX7" s="22"/>
+      <c r="AY7" s="22"/>
+      <c r="AZ7" s="22"/>
+      <c r="BA7" s="22"/>
+      <c r="BB7" s="22"/>
+      <c r="BC7" s="22"/>
+    </row>
+    <row r="8" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A8" s="22">
+        <f>A7 + 1</f>
+        <v>2</v>
+      </c>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="V8" s="22"/>
+      <c r="W8" s="22"/>
+      <c r="X8" s="22"/>
+      <c r="Y8" s="22"/>
+      <c r="Z8" s="22"/>
+      <c r="AA8" s="22"/>
+      <c r="AB8" s="22"/>
+      <c r="AC8" s="22"/>
+      <c r="AD8" s="22"/>
+      <c r="AE8" s="22"/>
+      <c r="AF8" s="22"/>
+      <c r="AG8" s="22"/>
+      <c r="AH8" s="22"/>
+      <c r="AI8" s="22"/>
+      <c r="AJ8" s="22"/>
+      <c r="AK8" s="22"/>
+      <c r="AL8" s="22"/>
+      <c r="AM8" s="22"/>
+      <c r="AN8" s="22"/>
+      <c r="AO8" s="22"/>
+      <c r="AP8" s="22"/>
+      <c r="AQ8" s="22"/>
+      <c r="AR8" s="22"/>
+      <c r="AS8" s="22"/>
+      <c r="AT8" s="22"/>
+      <c r="AU8" s="22"/>
+      <c r="AV8" s="22"/>
+      <c r="AW8" s="22"/>
+      <c r="AX8" s="22"/>
+      <c r="AY8" s="22"/>
+      <c r="AZ8" s="22"/>
+      <c r="BA8" s="22"/>
+      <c r="BB8" s="22"/>
+      <c r="BC8" s="22"/>
+    </row>
+    <row r="9" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A9" s="22">
+        <f t="shared" ref="A9:A21" si="0">A8 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="22"/>
+      <c r="U9" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="V9" s="22"/>
+      <c r="W9" s="22"/>
+      <c r="X9" s="22"/>
+      <c r="Y9" s="22"/>
+      <c r="Z9" s="22"/>
+      <c r="AA9" s="22"/>
+      <c r="AB9" s="22"/>
+      <c r="AC9" s="22"/>
+      <c r="AD9" s="22"/>
+      <c r="AE9" s="22"/>
+      <c r="AF9" s="22"/>
+      <c r="AG9" s="22"/>
+      <c r="AH9" s="22"/>
+      <c r="AI9" s="22"/>
+      <c r="AJ9" s="22"/>
+      <c r="AK9" s="22"/>
+      <c r="AL9" s="22"/>
+      <c r="AM9" s="22"/>
+      <c r="AN9" s="22"/>
+      <c r="AO9" s="22"/>
+      <c r="AP9" s="22"/>
+      <c r="AQ9" s="22"/>
+      <c r="AR9" s="22"/>
+      <c r="AS9" s="22"/>
+      <c r="AT9" s="22"/>
+      <c r="AU9" s="22"/>
+      <c r="AV9" s="22"/>
+      <c r="AW9" s="22"/>
+      <c r="AX9" s="22"/>
+      <c r="AY9" s="22"/>
+      <c r="AZ9" s="22"/>
+      <c r="BA9" s="22"/>
+      <c r="BB9" s="22"/>
+      <c r="BC9" s="22"/>
+    </row>
+    <row r="10" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A10" s="22">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="22"/>
+      <c r="U10" s="22"/>
+      <c r="V10" s="22"/>
+      <c r="W10" s="22"/>
+      <c r="X10" s="22"/>
+      <c r="Y10" s="22"/>
+      <c r="Z10" s="22"/>
+      <c r="AA10" s="22"/>
+      <c r="AB10" s="22"/>
+      <c r="AC10" s="22"/>
+      <c r="AD10" s="22"/>
+      <c r="AE10" s="22"/>
+      <c r="AF10" s="22"/>
+      <c r="AG10" s="22"/>
+      <c r="AH10" s="22"/>
+      <c r="AI10" s="22"/>
+      <c r="AJ10" s="22"/>
+      <c r="AK10" s="22"/>
+      <c r="AL10" s="22"/>
+      <c r="AM10" s="22"/>
+      <c r="AN10" s="22"/>
+      <c r="AO10" s="22"/>
+      <c r="AP10" s="22"/>
+      <c r="AQ10" s="22"/>
+      <c r="AR10" s="22"/>
+      <c r="AS10" s="22"/>
+      <c r="AT10" s="22"/>
+      <c r="AU10" s="22"/>
+      <c r="AV10" s="22"/>
+      <c r="AW10" s="22"/>
+      <c r="AX10" s="22"/>
+      <c r="AY10" s="22"/>
+      <c r="AZ10" s="22"/>
+      <c r="BA10" s="22"/>
+      <c r="BB10" s="22"/>
+      <c r="BC10" s="22"/>
+    </row>
+    <row r="11" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A11" s="22">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="22"/>
+      <c r="U11" s="22"/>
+      <c r="V11" s="22"/>
+      <c r="W11" s="22"/>
+      <c r="X11" s="22"/>
+      <c r="Y11" s="22"/>
+      <c r="Z11" s="22"/>
+      <c r="AA11" s="22"/>
+      <c r="AB11" s="22"/>
+      <c r="AC11" s="22"/>
+      <c r="AD11" s="22"/>
+      <c r="AE11" s="22"/>
+      <c r="AF11" s="22"/>
+      <c r="AG11" s="22"/>
+      <c r="AH11" s="22"/>
+      <c r="AI11" s="22"/>
+      <c r="AJ11" s="22"/>
+      <c r="AK11" s="22"/>
+      <c r="AL11" s="22"/>
+      <c r="AM11" s="22"/>
+      <c r="AN11" s="22"/>
+      <c r="AO11" s="22"/>
+      <c r="AP11" s="22"/>
+      <c r="AQ11" s="22"/>
+      <c r="AR11" s="22"/>
+      <c r="AS11" s="22"/>
+      <c r="AT11" s="22"/>
+      <c r="AU11" s="22"/>
+      <c r="AV11" s="22"/>
+      <c r="AW11" s="22"/>
+      <c r="AX11" s="22"/>
+      <c r="AY11" s="22"/>
+      <c r="AZ11" s="22"/>
+      <c r="BA11" s="22"/>
+      <c r="BB11" s="22"/>
+      <c r="BC11" s="22"/>
+    </row>
+    <row r="12" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A12" s="22">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="22"/>
+      <c r="U12" s="22"/>
+      <c r="V12" s="22"/>
+      <c r="W12" s="22"/>
+      <c r="X12" s="22"/>
+      <c r="Y12" s="22"/>
+      <c r="Z12" s="22"/>
+      <c r="AA12" s="22"/>
+      <c r="AB12" s="22"/>
+      <c r="AC12" s="22"/>
+      <c r="AD12" s="22"/>
+      <c r="AE12" s="22"/>
+      <c r="AF12" s="22"/>
+      <c r="AG12" s="22"/>
+      <c r="AH12" s="22"/>
+      <c r="AI12" s="22"/>
+      <c r="AJ12" s="22"/>
+      <c r="AK12" s="22"/>
+      <c r="AL12" s="22"/>
+      <c r="AM12" s="22"/>
+      <c r="AN12" s="22"/>
+      <c r="AO12" s="22"/>
+      <c r="AP12" s="22"/>
+      <c r="AQ12" s="22"/>
+      <c r="AR12" s="22"/>
+      <c r="AS12" s="22"/>
+      <c r="AT12" s="22"/>
+      <c r="AU12" s="22"/>
+      <c r="AV12" s="22"/>
+      <c r="AW12" s="22"/>
+      <c r="AX12" s="22"/>
+      <c r="AY12" s="22"/>
+      <c r="AZ12" s="22"/>
+      <c r="BA12" s="22"/>
+      <c r="BB12" s="22"/>
+      <c r="BC12" s="22"/>
+    </row>
+    <row r="13" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A13" s="22">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="22"/>
+      <c r="U13" s="22"/>
+      <c r="V13" s="22"/>
+      <c r="W13" s="22"/>
+      <c r="X13" s="22"/>
+      <c r="Y13" s="22"/>
+      <c r="Z13" s="22"/>
+      <c r="AA13" s="22"/>
+      <c r="AB13" s="22"/>
+      <c r="AC13" s="22"/>
+      <c r="AD13" s="22"/>
+      <c r="AE13" s="22"/>
+      <c r="AF13" s="22"/>
+      <c r="AG13" s="22"/>
+      <c r="AH13" s="22"/>
+      <c r="AI13" s="22"/>
+      <c r="AJ13" s="22"/>
+      <c r="AK13" s="22"/>
+      <c r="AL13" s="22"/>
+      <c r="AM13" s="22"/>
+      <c r="AN13" s="22"/>
+      <c r="AO13" s="22"/>
+      <c r="AP13" s="22"/>
+      <c r="AQ13" s="22"/>
+      <c r="AR13" s="22"/>
+      <c r="AS13" s="22"/>
+      <c r="AT13" s="22"/>
+      <c r="AU13" s="22"/>
+      <c r="AV13" s="22"/>
+      <c r="AW13" s="22"/>
+      <c r="AX13" s="22"/>
+      <c r="AY13" s="22"/>
+      <c r="AZ13" s="22"/>
+      <c r="BA13" s="22"/>
+      <c r="BB13" s="22"/>
+      <c r="BC13" s="22"/>
+    </row>
+    <row r="14" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A14" s="22">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="22"/>
+      <c r="U14" s="22"/>
+      <c r="V14" s="22"/>
+      <c r="W14" s="22"/>
+      <c r="X14" s="22"/>
+      <c r="Y14" s="22"/>
+      <c r="Z14" s="22"/>
+      <c r="AA14" s="22"/>
+      <c r="AB14" s="22"/>
+      <c r="AC14" s="22"/>
+      <c r="AD14" s="22"/>
+      <c r="AE14" s="22"/>
+      <c r="AF14" s="22"/>
+      <c r="AG14" s="22"/>
+      <c r="AH14" s="22"/>
+      <c r="AI14" s="22"/>
+      <c r="AJ14" s="22"/>
+      <c r="AK14" s="22"/>
+      <c r="AL14" s="22"/>
+      <c r="AM14" s="22"/>
+      <c r="AN14" s="22"/>
+      <c r="AO14" s="22"/>
+      <c r="AP14" s="22"/>
+      <c r="AQ14" s="22"/>
+      <c r="AR14" s="22"/>
+      <c r="AS14" s="22"/>
+      <c r="AT14" s="22"/>
+      <c r="AU14" s="22"/>
+      <c r="AV14" s="22"/>
+      <c r="AW14" s="22"/>
+      <c r="AX14" s="22"/>
+      <c r="AY14" s="22"/>
+      <c r="AZ14" s="22"/>
+      <c r="BA14" s="22"/>
+      <c r="BB14" s="22"/>
+      <c r="BC14" s="22"/>
+    </row>
+    <row r="15" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A15" s="22">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="22"/>
+      <c r="T15" s="22"/>
+      <c r="U15" s="22"/>
+      <c r="V15" s="22"/>
+      <c r="W15" s="22"/>
+      <c r="X15" s="22"/>
+      <c r="Y15" s="22"/>
+      <c r="Z15" s="22"/>
+      <c r="AA15" s="22"/>
+      <c r="AB15" s="22"/>
+      <c r="AC15" s="22"/>
+      <c r="AD15" s="22"/>
+      <c r="AE15" s="22"/>
+      <c r="AF15" s="22"/>
+      <c r="AG15" s="22"/>
+      <c r="AH15" s="22"/>
+      <c r="AI15" s="22"/>
+      <c r="AJ15" s="22"/>
+      <c r="AK15" s="22"/>
+      <c r="AL15" s="22"/>
+      <c r="AM15" s="22"/>
+      <c r="AN15" s="22"/>
+      <c r="AO15" s="22"/>
+      <c r="AP15" s="22"/>
+      <c r="AQ15" s="22"/>
+      <c r="AR15" s="22"/>
+      <c r="AS15" s="22"/>
+      <c r="AT15" s="22"/>
+      <c r="AU15" s="22"/>
+      <c r="AV15" s="22"/>
+      <c r="AW15" s="22"/>
+      <c r="AX15" s="22"/>
+      <c r="AY15" s="22"/>
+      <c r="AZ15" s="22"/>
+      <c r="BA15" s="22"/>
+      <c r="BB15" s="22"/>
+      <c r="BC15" s="22"/>
+    </row>
+    <row r="16" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A16" s="22">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="22"/>
+      <c r="S16" s="22"/>
+      <c r="T16" s="22"/>
+      <c r="U16" s="22"/>
+      <c r="V16" s="22"/>
+      <c r="W16" s="22"/>
+      <c r="X16" s="22"/>
+      <c r="Y16" s="22"/>
+      <c r="Z16" s="22"/>
+      <c r="AA16" s="22"/>
+      <c r="AB16" s="22"/>
+      <c r="AC16" s="22"/>
+      <c r="AD16" s="22"/>
+      <c r="AE16" s="22"/>
+      <c r="AF16" s="22"/>
+      <c r="AG16" s="22"/>
+      <c r="AH16" s="22"/>
+      <c r="AI16" s="22"/>
+      <c r="AJ16" s="22"/>
+      <c r="AK16" s="22"/>
+      <c r="AL16" s="22"/>
+      <c r="AM16" s="22"/>
+      <c r="AN16" s="22"/>
+      <c r="AO16" s="22"/>
+      <c r="AP16" s="22"/>
+      <c r="AQ16" s="22"/>
+      <c r="AR16" s="22"/>
+      <c r="AS16" s="22"/>
+      <c r="AT16" s="22"/>
+      <c r="AU16" s="22"/>
+      <c r="AV16" s="22"/>
+      <c r="AW16" s="22"/>
+      <c r="AX16" s="22"/>
+      <c r="AY16" s="22"/>
+      <c r="AZ16" s="22"/>
+      <c r="BA16" s="22"/>
+      <c r="BB16" s="22"/>
+      <c r="BC16" s="22"/>
+    </row>
+    <row r="17" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A17" s="22">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="22"/>
+      <c r="S17" s="22"/>
+      <c r="T17" s="22"/>
+      <c r="U17" s="22"/>
+      <c r="V17" s="22"/>
+      <c r="W17" s="22"/>
+      <c r="X17" s="22"/>
+      <c r="Y17" s="22"/>
+      <c r="Z17" s="22"/>
+      <c r="AA17" s="22"/>
+      <c r="AB17" s="22"/>
+      <c r="AC17" s="22"/>
+      <c r="AD17" s="22"/>
+      <c r="AE17" s="22"/>
+      <c r="AF17" s="22"/>
+      <c r="AG17" s="22"/>
+      <c r="AH17" s="22"/>
+      <c r="AI17" s="22"/>
+      <c r="AJ17" s="22"/>
+      <c r="AK17" s="22"/>
+      <c r="AL17" s="22"/>
+      <c r="AM17" s="22"/>
+      <c r="AN17" s="22"/>
+      <c r="AO17" s="22"/>
+      <c r="AP17" s="22"/>
+      <c r="AQ17" s="22"/>
+      <c r="AR17" s="22"/>
+      <c r="AS17" s="22"/>
+      <c r="AT17" s="22"/>
+      <c r="AU17" s="22"/>
+      <c r="AV17" s="22"/>
+      <c r="AW17" s="22"/>
+      <c r="AX17" s="22"/>
+      <c r="AY17" s="22"/>
+      <c r="AZ17" s="22"/>
+      <c r="BA17" s="22"/>
+      <c r="BB17" s="22"/>
+      <c r="BC17" s="22"/>
+    </row>
+    <row r="18" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A18" s="22">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="22"/>
+      <c r="S18" s="22"/>
+      <c r="T18" s="22"/>
+      <c r="U18" s="22"/>
+      <c r="V18" s="22"/>
+      <c r="W18" s="22"/>
+      <c r="X18" s="22"/>
+      <c r="Y18" s="22"/>
+      <c r="Z18" s="22"/>
+      <c r="AA18" s="22"/>
+      <c r="AB18" s="22"/>
+      <c r="AC18" s="22"/>
+      <c r="AD18" s="22"/>
+      <c r="AE18" s="22"/>
+      <c r="AF18" s="22"/>
+      <c r="AG18" s="22"/>
+      <c r="AH18" s="22"/>
+      <c r="AI18" s="22"/>
+      <c r="AJ18" s="22"/>
+      <c r="AK18" s="22"/>
+      <c r="AL18" s="22"/>
+      <c r="AM18" s="22"/>
+      <c r="AN18" s="22"/>
+      <c r="AO18" s="22"/>
+      <c r="AP18" s="22"/>
+      <c r="AQ18" s="22"/>
+      <c r="AR18" s="22"/>
+      <c r="AS18" s="22"/>
+      <c r="AT18" s="22"/>
+      <c r="AU18" s="22"/>
+      <c r="AV18" s="22"/>
+      <c r="AW18" s="22"/>
+      <c r="AX18" s="22"/>
+      <c r="AY18" s="22"/>
+      <c r="AZ18" s="22"/>
+      <c r="BA18" s="22"/>
+      <c r="BB18" s="22"/>
+      <c r="BC18" s="22"/>
+    </row>
+    <row r="19" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A19" s="22">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="22"/>
+      <c r="Q19" s="22"/>
+      <c r="R19" s="22"/>
+      <c r="S19" s="22"/>
+      <c r="T19" s="22"/>
+      <c r="U19" s="22"/>
+      <c r="V19" s="22"/>
+      <c r="W19" s="22"/>
+      <c r="X19" s="22"/>
+      <c r="Y19" s="22"/>
+      <c r="Z19" s="22"/>
+      <c r="AA19" s="22"/>
+      <c r="AB19" s="22"/>
+      <c r="AC19" s="22"/>
+      <c r="AD19" s="22"/>
+      <c r="AE19" s="22"/>
+      <c r="AF19" s="22"/>
+      <c r="AG19" s="22"/>
+      <c r="AH19" s="22"/>
+      <c r="AI19" s="22"/>
+      <c r="AJ19" s="22"/>
+      <c r="AK19" s="22"/>
+      <c r="AL19" s="22"/>
+      <c r="AM19" s="22"/>
+      <c r="AN19" s="22"/>
+      <c r="AO19" s="22"/>
+      <c r="AP19" s="22"/>
+      <c r="AQ19" s="22"/>
+      <c r="AR19" s="22"/>
+      <c r="AS19" s="22"/>
+      <c r="AT19" s="22"/>
+      <c r="AU19" s="22"/>
+      <c r="AV19" s="22"/>
+      <c r="AW19" s="22"/>
+      <c r="AX19" s="22"/>
+      <c r="AY19" s="22"/>
+      <c r="AZ19" s="22"/>
+      <c r="BA19" s="22"/>
+      <c r="BB19" s="22"/>
+      <c r="BC19" s="22"/>
+    </row>
+    <row r="20" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A20" s="22">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="22"/>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="22"/>
+      <c r="S20" s="22"/>
+      <c r="T20" s="22"/>
+      <c r="U20" s="22"/>
+      <c r="V20" s="22"/>
+      <c r="W20" s="22"/>
+      <c r="X20" s="22"/>
+      <c r="Y20" s="22"/>
+      <c r="Z20" s="22"/>
+      <c r="AA20" s="22"/>
+      <c r="AB20" s="22"/>
+      <c r="AC20" s="22"/>
+      <c r="AD20" s="22"/>
+      <c r="AE20" s="22"/>
+      <c r="AF20" s="22"/>
+      <c r="AG20" s="22"/>
+      <c r="AH20" s="22"/>
+      <c r="AI20" s="22"/>
+      <c r="AJ20" s="22"/>
+      <c r="AK20" s="22"/>
+      <c r="AL20" s="22"/>
+      <c r="AM20" s="22"/>
+      <c r="AN20" s="22"/>
+      <c r="AO20" s="22"/>
+      <c r="AP20" s="22"/>
+      <c r="AQ20" s="22"/>
+      <c r="AR20" s="22"/>
+      <c r="AS20" s="22"/>
+      <c r="AT20" s="22"/>
+      <c r="AU20" s="22"/>
+      <c r="AV20" s="22"/>
+      <c r="AW20" s="22"/>
+      <c r="AX20" s="22"/>
+      <c r="AY20" s="22"/>
+      <c r="AZ20" s="22"/>
+      <c r="BA20" s="22"/>
+      <c r="BB20" s="22"/>
+      <c r="BC20" s="22"/>
+    </row>
+    <row r="21" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A21" s="22">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="22"/>
+      <c r="Q21" s="22"/>
+      <c r="R21" s="22"/>
+      <c r="S21" s="22"/>
+      <c r="T21" s="22"/>
+      <c r="U21" s="22"/>
+      <c r="V21" s="22"/>
+      <c r="W21" s="22"/>
+      <c r="X21" s="22"/>
+      <c r="Y21" s="22"/>
+      <c r="Z21" s="22"/>
+      <c r="AA21" s="22"/>
+      <c r="AB21" s="22"/>
+      <c r="AC21" s="22"/>
+      <c r="AD21" s="22"/>
+      <c r="AE21" s="22"/>
+      <c r="AF21" s="22"/>
+      <c r="AG21" s="22"/>
+      <c r="AH21" s="22"/>
+      <c r="AI21" s="22"/>
+      <c r="AJ21" s="22"/>
+      <c r="AK21" s="22"/>
+      <c r="AL21" s="22"/>
+      <c r="AM21" s="22"/>
+      <c r="AN21" s="22"/>
+      <c r="AO21" s="22"/>
+      <c r="AP21" s="22"/>
+      <c r="AQ21" s="22"/>
+      <c r="AR21" s="22"/>
+      <c r="AS21" s="22"/>
+      <c r="AT21" s="22"/>
+      <c r="AU21" s="22"/>
+      <c r="AV21" s="22"/>
+      <c r="AW21" s="22"/>
+      <c r="AX21" s="22"/>
+      <c r="AY21" s="22"/>
+      <c r="AZ21" s="22"/>
+      <c r="BA21" s="22"/>
+      <c r="BB21" s="22"/>
+      <c r="BC21" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="82">
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:T21"/>
+    <mergeCell ref="U21:AG21"/>
+    <mergeCell ref="AH21:BC21"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:T19"/>
+    <mergeCell ref="U19:AG19"/>
+    <mergeCell ref="AH19:BC19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:T20"/>
+    <mergeCell ref="U20:AG20"/>
+    <mergeCell ref="AH20:BC20"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:T17"/>
+    <mergeCell ref="U17:AG17"/>
+    <mergeCell ref="AH17:BC17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:T18"/>
+    <mergeCell ref="U18:AG18"/>
+    <mergeCell ref="AH18:BC18"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:T15"/>
+    <mergeCell ref="U15:AG15"/>
+    <mergeCell ref="AH15:BC15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:T16"/>
+    <mergeCell ref="U16:AG16"/>
+    <mergeCell ref="AH16:BC16"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:T13"/>
+    <mergeCell ref="U13:AG13"/>
+    <mergeCell ref="AH13:BC13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:T14"/>
+    <mergeCell ref="U14:AG14"/>
+    <mergeCell ref="AH14:BC14"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:T11"/>
+    <mergeCell ref="U11:AG11"/>
+    <mergeCell ref="AH11:BC11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:T12"/>
+    <mergeCell ref="U12:AG12"/>
+    <mergeCell ref="AH12:BC12"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:T9"/>
+    <mergeCell ref="U9:AG9"/>
+    <mergeCell ref="AH9:BC9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:T10"/>
+    <mergeCell ref="U10:AG10"/>
+    <mergeCell ref="AH10:BC10"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:T7"/>
+    <mergeCell ref="U7:AG7"/>
+    <mergeCell ref="AH7:BC7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:T8"/>
+    <mergeCell ref="U8:AG8"/>
+    <mergeCell ref="AH8:BC8"/>
+    <mergeCell ref="A2:BC2"/>
+    <mergeCell ref="A3:BC3"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:T6"/>
+    <mergeCell ref="U6:AG6"/>
+    <mergeCell ref="AH6:BC6"/>
+  </mergeCells>
+  <phoneticPr fontId="6"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C00BFEF-4139-4448-B96C-465053393676}">
+  <dimension ref="A2:BC21"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A2" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="22"/>
+      <c r="X2" s="22"/>
+      <c r="Y2" s="22"/>
+      <c r="Z2" s="22"/>
+      <c r="AA2" s="22"/>
+      <c r="AB2" s="22"/>
+      <c r="AC2" s="22"/>
+      <c r="AD2" s="22"/>
+      <c r="AE2" s="22"/>
+      <c r="AF2" s="22"/>
+      <c r="AG2" s="22"/>
+      <c r="AH2" s="22"/>
+      <c r="AI2" s="22"/>
+      <c r="AJ2" s="22"/>
+      <c r="AK2" s="22"/>
+      <c r="AL2" s="22"/>
+      <c r="AM2" s="22"/>
+      <c r="AN2" s="22"/>
+      <c r="AO2" s="22"/>
+      <c r="AP2" s="22"/>
+      <c r="AQ2" s="22"/>
+      <c r="AR2" s="22"/>
+      <c r="AS2" s="22"/>
+      <c r="AT2" s="22"/>
+      <c r="AU2" s="22"/>
+      <c r="AV2" s="22"/>
+      <c r="AW2" s="22"/>
+      <c r="AX2" s="22"/>
+      <c r="AY2" s="22"/>
+      <c r="AZ2" s="22"/>
+      <c r="BA2" s="22"/>
+      <c r="BB2" s="22"/>
+      <c r="BC2" s="22"/>
+    </row>
+    <row r="3" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A3" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="22"/>
+      <c r="X3" s="22"/>
+      <c r="Y3" s="22"/>
+      <c r="Z3" s="22"/>
+      <c r="AA3" s="22"/>
+      <c r="AB3" s="22"/>
+      <c r="AC3" s="22"/>
+      <c r="AD3" s="22"/>
+      <c r="AE3" s="22"/>
+      <c r="AF3" s="22"/>
+      <c r="AG3" s="22"/>
+      <c r="AH3" s="22"/>
+      <c r="AI3" s="22"/>
+      <c r="AJ3" s="22"/>
+      <c r="AK3" s="22"/>
+      <c r="AL3" s="22"/>
+      <c r="AM3" s="22"/>
+      <c r="AN3" s="22"/>
+      <c r="AO3" s="22"/>
+      <c r="AP3" s="22"/>
+      <c r="AQ3" s="22"/>
+      <c r="AR3" s="22"/>
+      <c r="AS3" s="22"/>
+      <c r="AT3" s="22"/>
+      <c r="AU3" s="22"/>
+      <c r="AV3" s="22"/>
+      <c r="AW3" s="22"/>
+      <c r="AX3" s="22"/>
+      <c r="AY3" s="22"/>
+      <c r="AZ3" s="22"/>
+      <c r="BA3" s="22"/>
+      <c r="BB3" s="22"/>
+      <c r="BC3" s="22"/>
+    </row>
+    <row r="6" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A6" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="22"/>
     </row>
     <row r="7" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A7" s="22">
@@ -7192,6 +8448,48 @@
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:T20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:T21"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:T18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:T19"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:T17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:T16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:T15"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:T14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:T13"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:T12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:T11"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:T10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:T9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:T8"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="H7:T7"/>
@@ -7200,48 +8498,6 @@
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="H6:T6"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:T9"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:T8"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="H11:T11"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H10:T10"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:T13"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:T12"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="H15:T15"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:T14"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="H17:T17"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H16:T16"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:T18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:T19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:T20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:T21"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -7249,7 +8505,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
